--- a/SchedulingData/dynamic9/pso/scheduling1_16.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_16.xlsx
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.40000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="E2" t="n">
-        <v>26.34</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50.24</v>
+        <v>55.24</v>
       </c>
       <c r="E3" t="n">
         <v>26.656</v>
@@ -500,40 +500,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50.24</v>
+        <v>63.4</v>
       </c>
       <c r="D4" t="n">
-        <v>117.34</v>
+        <v>113.08</v>
       </c>
       <c r="E4" t="n">
-        <v>22.576</v>
+        <v>22.032</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>113.08</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3</v>
+        <v>171.08</v>
       </c>
       <c r="E5" t="n">
-        <v>26.36</v>
+        <v>17.872</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>61.18</v>
+        <v>52.7</v>
       </c>
       <c r="E6" t="n">
-        <v>27.032</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48.3</v>
+        <v>171.08</v>
       </c>
       <c r="D7" t="n">
-        <v>97.68000000000001</v>
+        <v>222.1</v>
       </c>
       <c r="E7" t="n">
-        <v>22.552</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61.18</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>116.18</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>23.652</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="9">
@@ -614,40 +614,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>177.16</v>
+        <v>86.2</v>
       </c>
       <c r="E10" t="n">
-        <v>18.724</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.40000000000001</v>
+        <v>55.24</v>
       </c>
       <c r="D11" t="n">
-        <v>118.98</v>
+        <v>103.24</v>
       </c>
       <c r="E11" t="n">
-        <v>23.392</v>
+        <v>22.996</v>
       </c>
     </row>
     <row r="12">
@@ -660,165 +660,165 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>117.34</v>
+        <v>86.2</v>
       </c>
       <c r="D12" t="n">
-        <v>208.62</v>
+        <v>147.78</v>
       </c>
       <c r="E12" t="n">
-        <v>18.528</v>
+        <v>20.492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D13" t="n">
-        <v>56.62</v>
+        <v>105.08</v>
       </c>
       <c r="E13" t="n">
-        <v>27.008</v>
+        <v>23.292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>177.16</v>
+        <v>147.78</v>
       </c>
       <c r="D14" t="n">
-        <v>235.16</v>
+        <v>206.8</v>
       </c>
       <c r="E14" t="n">
-        <v>14.564</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56.62</v>
+        <v>52.7</v>
       </c>
       <c r="D15" t="n">
-        <v>110.26</v>
+        <v>118.9</v>
       </c>
       <c r="E15" t="n">
-        <v>23.264</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62.02</v>
+        <v>103.24</v>
       </c>
       <c r="D16" t="n">
-        <v>137.92</v>
+        <v>181.76</v>
       </c>
       <c r="E16" t="n">
-        <v>20.508</v>
+        <v>18.264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>110.26</v>
+        <v>62.02</v>
       </c>
       <c r="D17" t="n">
-        <v>168.88</v>
+        <v>112.7</v>
       </c>
       <c r="E17" t="n">
-        <v>18.532</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>168.88</v>
+        <v>112.7</v>
       </c>
       <c r="D18" t="n">
-        <v>212.36</v>
+        <v>156.12</v>
       </c>
       <c r="E18" t="n">
-        <v>15.804</v>
+        <v>19.808</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>212.36</v>
+        <v>156.12</v>
       </c>
       <c r="D19" t="n">
-        <v>274.86</v>
+        <v>238.42</v>
       </c>
       <c r="E19" t="n">
-        <v>11.664</v>
+        <v>16.168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>118.98</v>
+        <v>105.08</v>
       </c>
       <c r="D20" t="n">
-        <v>174.92</v>
+        <v>181.78</v>
       </c>
       <c r="E20" t="n">
-        <v>19.908</v>
+        <v>19.692</v>
       </c>
     </row>
     <row r="21">
@@ -827,131 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208.62</v>
+        <v>206.8</v>
       </c>
       <c r="D21" t="n">
-        <v>269.22</v>
+        <v>262.84</v>
       </c>
       <c r="E21" t="n">
-        <v>13.608</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>274.86</v>
+        <v>238.42</v>
       </c>
       <c r="D22" t="n">
-        <v>317.12</v>
+        <v>296.6</v>
       </c>
       <c r="E22" t="n">
-        <v>9.068</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>269.22</v>
+        <v>222.1</v>
       </c>
       <c r="D23" t="n">
-        <v>328.24</v>
+        <v>289.14</v>
       </c>
       <c r="E23" t="n">
-        <v>9.816000000000001</v>
+        <v>11.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>174.92</v>
+        <v>181.76</v>
       </c>
       <c r="D24" t="n">
-        <v>224</v>
+        <v>242.74</v>
       </c>
       <c r="E24" t="n">
-        <v>17.62</v>
+        <v>15.296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>116.18</v>
+        <v>181.78</v>
       </c>
       <c r="D25" t="n">
-        <v>162.98</v>
+        <v>235.42</v>
       </c>
       <c r="E25" t="n">
-        <v>20.612</v>
+        <v>15.948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>137.92</v>
+        <v>118.9</v>
       </c>
       <c r="D26" t="n">
-        <v>195.06</v>
+        <v>199.5</v>
       </c>
       <c r="E26" t="n">
-        <v>16.924</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>195.06</v>
+        <v>242.74</v>
       </c>
       <c r="D27" t="n">
-        <v>248.48</v>
+        <v>305</v>
       </c>
       <c r="E27" t="n">
-        <v>13.712</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="28">
@@ -960,55 +960,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>162.98</v>
+        <v>199.5</v>
       </c>
       <c r="D28" t="n">
-        <v>225.38</v>
+        <v>249.7</v>
       </c>
       <c r="E28" t="n">
-        <v>17.012</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>225.38</v>
+        <v>262.84</v>
       </c>
       <c r="D29" t="n">
-        <v>282.4</v>
+        <v>317.32</v>
       </c>
       <c r="E29" t="n">
-        <v>14.42</v>
+        <v>9.407999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>248.48</v>
+        <v>235.42</v>
       </c>
       <c r="D30" t="n">
-        <v>323.68</v>
+        <v>293.02</v>
       </c>
       <c r="E30" t="n">
-        <v>9.292</v>
+        <v>11.808</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>282.4</v>
+        <v>249.7</v>
       </c>
       <c r="D31" t="n">
-        <v>349.8</v>
+        <v>296.72</v>
       </c>
       <c r="E31" t="n">
-        <v>10.28</v>
+        <v>11.988</v>
       </c>
     </row>
   </sheetData>
